--- a/TimeSheetGenerator.xlsx
+++ b/TimeSheetGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\My Repo (Rutgers GitHub, editable)\20220125_ResourceDash\qa_resource_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903EC0B1-0C86-4374-99B1-DB3590028C3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F30FEA8-8AFD-49C5-BE70-BAFA536538C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1687" yWindow="7107" windowWidth="18427" windowHeight="11746" firstSheet="1" activeTab="7" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
+    <workbookView xWindow="-1687" yWindow="7107" windowWidth="18427" windowHeight="11746" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
   </bookViews>
   <sheets>
     <sheet name="TopicGoals" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -1505,8 +1505,8 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="3" name="First">
@@ -1529,7 +1529,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -1872,7 +1872,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30E5D444-3D25-4992-93E1-E4BE7E06D1FD}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{30E5D444-3D25-4992-93E1-E4BE7E06D1FD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A4:B10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField showAll="0">
@@ -2291,7 +2291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFBCAC7-0978-4D1F-ADD5-2F042C33A98F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2381,7 +2381,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,23 +3384,23 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,9),$L$23:$M$31,2,FALSE)</f>
-        <v>PQR</v>
+        <v>MNO</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
-        <v>Root Cause Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$L$20:$M$21,2,FALSE)</f>
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
@@ -3431,11 +3431,11 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" ca="1" si="3">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F34" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,2),$L$20:$M$21,2,FALSE)</f>
@@ -3458,19 +3458,19 @@
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3493,23 +3493,23 @@
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L5">
         <v>4</v>
@@ -3524,7 +3524,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3532,15 +3532,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3553,23 +3553,23 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>YZ1</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3588,23 +3588,23 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>YZ1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3623,15 +3623,15 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>MNO</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
@@ -3639,7 +3639,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>YZ1</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3666,15 +3666,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3693,23 +3693,23 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>MNO</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3728,7 +3728,7 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>VWX</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3736,19 +3736,19 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -3767,19 +3767,19 @@
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3792,27 +3792,27 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>PQR</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -3827,19 +3827,19 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>STU</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -3847,7 +3847,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3862,15 +3862,15 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>DEF</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
@@ -3878,7 +3878,7 @@
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3897,27 +3897,27 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>PQR</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L17">
         <v>4</v>
@@ -3932,11 +3932,11 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>ABC</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3967,19 +3967,19 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>YZ1</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4000,7 +4000,7 @@
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
@@ -4012,11 +4012,11 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4031,7 +4031,7 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>PQR</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4043,11 +4043,11 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4066,23 +4066,23 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>STU</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4095,11 +4095,11 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>STU</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
@@ -4107,11 +4107,11 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4130,27 +4130,27 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>JKL</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -4165,11 +4165,11 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>PQR</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4208,19 +4208,19 @@
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -4235,11 +4235,11 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>STU</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
@@ -4251,7 +4251,7 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4274,7 +4274,7 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
@@ -4282,11 +4282,11 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4305,23 +4305,23 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>DEF</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4340,7 +4340,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>JKL</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4348,7 +4348,7 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
@@ -4356,7 +4356,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4375,7 +4375,7 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>ABC</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4383,11 +4383,11 @@
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4418,19 +4418,19 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -4439,27 +4439,27 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>DEF</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,15 +4468,15 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>JKL</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
@@ -4484,11 +4484,11 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4539,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>7584</v>
+        <v>6070</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
@@ -4547,19 +4547,19 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,9)/4</f>
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
@@ -4575,31 +4575,31 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A36" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>6063</v>
+        <v>6226</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B36" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
-        <v>PQR</v>
+        <v>GHI</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C36" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D36" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E36" ca="1" si="4">RANDBETWEEN(1,9)/4</f>
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F36" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G36" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -4611,27 +4611,27 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6064</v>
+        <v>7755</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>GHI</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4647,19 +4647,19 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6073</v>
+        <v>7037</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>PQR</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
@@ -4667,11 +4667,11 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -4683,19 +4683,19 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6097</v>
+        <v>7808</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>VWX</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
@@ -4719,19 +4719,19 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>7566</v>
+        <v>7322</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
@@ -4739,7 +4739,7 @@
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4755,23 +4755,23 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7806</v>
+        <v>7182</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>DEF</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4791,27 +4791,27 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7901</v>
+        <v>7880</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>DEF</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4827,27 +4827,27 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>6010</v>
+        <v>6212</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>MNO</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4863,23 +4863,23 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>6987</v>
+        <v>7195</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4887,17 +4887,17 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6373</v>
+        <v>7016</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4905,19 +4905,19 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -4929,11 +4929,11 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6179</v>
+        <v>6937</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>YZ1</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4941,15 +4941,15 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4965,19 +4965,19 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6240</v>
+        <v>7575</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>VWX</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
@@ -4985,11 +4985,11 @@
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -5001,27 +5001,27 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>6713</v>
+        <v>7987</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5037,27 +5037,27 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>7276</v>
+        <v>7651</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>VWX</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5073,15 +5073,15 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7683</v>
+        <v>7643</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>JKL</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
@@ -5089,11 +5089,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5109,19 +5109,19 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7961</v>
+        <v>7883</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>ABC</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
@@ -5129,7 +5129,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5139,27 +5139,27 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7267</v>
+        <v>7321</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>GHI</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5175,27 +5175,27 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>6265</v>
+        <v>7511</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>JKL</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5211,11 +5211,11 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>7845</v>
+        <v>7757</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>STU</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5223,19 +5223,19 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O21">
         <v>3</v>
@@ -5247,31 +5247,31 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>7844</v>
+        <v>6818</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>PQR</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O22">
         <v>4</v>
@@ -5283,23 +5283,23 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6856</v>
+        <v>7788</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>GHI</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5319,23 +5319,23 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>6545</v>
+        <v>7109</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>YZ1</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5343,13 +5343,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>7115</v>
+        <v>7556</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5357,23 +5357,23 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O25">
         <v>1</v>
@@ -5385,27 +5385,27 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6841</v>
+        <v>6667</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>STU</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5421,15 +5421,15 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>7632</v>
+        <v>6714</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>YZ1</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
@@ -5437,11 +5437,11 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5451,7 +5451,7 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>7425</v>
+        <v>7166</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5459,23 +5459,23 @@
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -5487,11 +5487,11 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>6186</v>
+        <v>6361</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>JKL</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5499,15 +5499,15 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5523,19 +5523,19 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>6044</v>
+        <v>7346</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>STU</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
@@ -5543,7 +5543,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5559,27 +5559,27 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>6842</v>
+        <v>6199</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>YZ1</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5595,11 +5595,11 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>6293</v>
+        <v>6033</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>YZ1</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5607,41 +5607,41 @@
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>6933</v>
+        <v>7269</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5655,19 +5655,19 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>6931</v>
+        <v>6070</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>ABC</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
@@ -5675,37 +5675,37 @@
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>7607</v>
+        <v>6843</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>STU</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5715,27 +5715,27 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>6507</v>
+        <v>7862</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>VWX</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5796,7 +5796,7 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>6857</v>
+        <v>7905</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
@@ -5804,15 +5804,15 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
@@ -5832,23 +5832,23 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A27" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>6070</v>
+        <v>7949</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B27" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C27" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D27" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E27" ca="1" si="4">RANDBETWEEN(1,11)/2</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F27" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
@@ -5856,7 +5856,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G27" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$24:$P$25,2,FALSE)</f>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -5868,11 +5868,11 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6652</v>
+        <v>7901</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP3</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5880,19 +5880,19 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -5904,7 +5904,7 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>7701</v>
+        <v>6427</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5916,7 +5916,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
@@ -5924,7 +5924,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5934,41 +5934,41 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6258</v>
+        <v>6707</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>6815</v>
+        <v>6503</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5980,29 +5980,29 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7789</v>
+        <v>7259</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
@@ -6010,25 +6010,25 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>6415</v>
+        <v>6535</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6040,11 +6040,11 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6054,27 +6054,27 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>6599</v>
+        <v>7818</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6084,11 +6084,11 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>6562</v>
+        <v>7894</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6096,15 +6096,15 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6120,27 +6120,27 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>7141</v>
+        <v>7323</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6156,7 +6156,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6948</v>
+        <v>6267</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6168,19 +6168,19 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -6192,27 +6192,27 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6354</v>
+        <v>6033</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6228,31 +6228,31 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>7902</v>
+        <v>7009</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -6264,11 +6264,11 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>7522</v>
+        <v>7067</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6276,19 +6276,19 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O16">
         <v>6</v>
@@ -6300,11 +6300,11 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7927</v>
+        <v>6968</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6312,11 +6312,11 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6330,11 +6330,11 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7563</v>
+        <v>6777</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6342,11 +6342,11 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6354,7 +6354,7 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -6366,31 +6366,31 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7031</v>
+        <v>6195</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -6402,31 +6402,31 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>6492</v>
+        <v>7464</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O20">
         <v>3</v>
@@ -6438,19 +6438,19 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>7075</v>
+        <v>6733</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
@@ -6458,7 +6458,7 @@
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6474,27 +6474,27 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>6469</v>
+        <v>6350</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6510,11 +6510,11 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6321</v>
+        <v>6031</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6522,29 +6522,29 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>6099</v>
+        <v>6731</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6552,15 +6552,15 @@
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6576,27 +6576,27 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>6275</v>
+        <v>7394</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6612,41 +6612,41 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6560</v>
+        <v>6536</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP3</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>6882</v>
+        <v>7203</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6654,19 +6654,19 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O27">
         <v>1</v>
@@ -6692,7 +6692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B4039B7-F35A-490B-9C1A-B20A2D46EDE3}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6731,7 +6731,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(200,230)</f>
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B2">
         <v>77030</v>
@@ -6741,11 +6741,11 @@
       </c>
       <c r="D2" s="4">
         <f ca="1">E2+RANDBETWEEN(-2,5)</f>
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="E2" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ref="E2:E35" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <v>44588</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
@@ -6756,32 +6756,32 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A35" ca="1" si="0">RANDBETWEEN(200,230)</f>
-        <v>205</v>
+        <f t="shared" ref="A3:A35" ca="1" si="1">RANDBETWEEN(200,230)</f>
+        <v>228</v>
       </c>
       <c r="B3">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ref="B3:B35" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
         <v>77707</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">E3+RANDBETWEEN(-2,5)</f>
+        <v>44586</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44587</v>
-      </c>
-      <c r="E3" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
-        <v>Process</v>
+        <v>Supplier</v>
       </c>
       <c r="G3" t="str">
         <f ca="1">VLOOKUP(F3,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Purchasing</v>
+        <v>Vendor C</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -6801,31 +6801,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ca="1" si="0"/>
-        <v>206</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>215</v>
       </c>
       <c r="B4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C35" ca="1" si="1">RANDBETWEEN(1,11)/2</f>
-        <v>4</v>
+        <f t="shared" ref="C4:C35" ca="1" si="3">RANDBETWEEN(1,11)/2</f>
+        <v>2.5</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D35" ca="1" si="2">E4+RANDBETWEEN(-2,5)</f>
-        <v>44590</v>
+        <f t="shared" ref="D4:D35" ca="1" si="4">E4+RANDBETWEEN(-2,5)</f>
+        <v>44588</v>
       </c>
       <c r="E4" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F35" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
+        <f t="shared" ref="F4:F35" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
         <v>Supplier</v>
       </c>
       <c r="G4" t="str">
-        <f t="shared" ref="G4:G35" ca="1" si="4">VLOOKUP(F4,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
+        <f t="shared" ref="G4:G35" ca="1" si="6">VLOOKUP(F4,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
         <v>Vendor B</v>
       </c>
       <c r="M4">
@@ -6846,32 +6846,32 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>228</v>
       </c>
       <c r="B5">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>32301</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C5">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44585</v>
       </c>
       <c r="E5" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44586</v>
       </c>
       <c r="F5" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G5" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor A</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -6891,32 +6891,32 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>202</v>
       </c>
       <c r="B6">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C6">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1.5</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44591</v>
       </c>
       <c r="E6" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44587</v>
       </c>
       <c r="F6" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Product</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G6" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor C</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -6936,212 +6936,212 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>217</v>
       </c>
       <c r="B7">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C7">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44588</v>
       </c>
       <c r="E7" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F7" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Product</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Equipment Control</v>
       </c>
       <c r="G7" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>In Process</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" ca="1" si="0"/>
-        <v>225</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>224</v>
       </c>
       <c r="B8">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C8">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>0.5</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44590</v>
       </c>
       <c r="E8" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F8" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G8" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor B</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" ca="1" si="0"/>
-        <v>223</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
       </c>
       <c r="B9">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77707</v>
       </c>
       <c r="C9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44589</v>
       </c>
       <c r="E9" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44587</v>
       </c>
       <c r="F9" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G9" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor C</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
       </c>
       <c r="B10">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>32301</v>
       </c>
       <c r="C10">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44591</v>
       </c>
       <c r="E10" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44589</v>
       </c>
       <c r="F10" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Process</v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" ca="1" si="0"/>
-        <v>208</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
       </c>
       <c r="B11">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C11">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44590</v>
       </c>
       <c r="E11" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44585</v>
       </c>
       <c r="F11" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Product</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Process</v>
       </c>
       <c r="G11" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchased</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchasing</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>206</v>
       </c>
       <c r="B12">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77030</v>
       </c>
       <c r="C12">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44584</v>
       </c>
       <c r="E12" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44586</v>
       </c>
       <c r="F12" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Process</v>
       </c>
       <c r="G12" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>Manufacturing</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" ca="1" si="0"/>
-        <v>215</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>229</v>
       </c>
       <c r="B13">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C13">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>44588</v>
       </c>
       <c r="E13" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44585</v>
       </c>
       <c r="F13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Equipment Control</v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -7155,32 +7155,32 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ca="1" si="0"/>
-        <v>207</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>213</v>
       </c>
       <c r="B14">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C14">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44594</v>
       </c>
       <c r="E14" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44589</v>
       </c>
       <c r="F14" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor A</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -7194,32 +7194,32 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>211</v>
       </c>
       <c r="B15">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
       </c>
       <c r="E15" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44586</v>
       </c>
       <c r="F15" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchasing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor B</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -7233,32 +7233,32 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>207</v>
       </c>
       <c r="B16">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
       </c>
       <c r="E16" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44585</v>
       </c>
       <c r="F16" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Equipment Control</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Manufacturing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -7272,32 +7272,32 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" ca="1" si="0"/>
-        <v>230</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>225</v>
       </c>
       <c r="B17">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77030</v>
       </c>
       <c r="C17">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44588</v>
       </c>
       <c r="E17" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Equipment Control</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Process</v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Inspection</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Engineering</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -7311,32 +7311,32 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>229</v>
       </c>
       <c r="B18">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77030</v>
       </c>
       <c r="C18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3.5</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44584</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
       </c>
       <c r="E18" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Supplier</v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor B</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -7350,62 +7350,62 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>212</v>
       </c>
       <c r="B19">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5.5</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44587</v>
       </c>
-      <c r="E19" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
-      </c>
       <c r="F19" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Equipment Control</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Inspection</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>206</v>
       </c>
       <c r="B20">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C20">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44585</v>
       </c>
       <c r="E20" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44585</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor A</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -7416,32 +7416,32 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>208</v>
       </c>
       <c r="B21">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44588</v>
       </c>
       <c r="E21" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44585</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Process</v>
       </c>
       <c r="G21" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor A</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -7452,32 +7452,32 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" ca="1" si="0"/>
-        <v>211</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>227</v>
       </c>
       <c r="B22">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C22">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44588</v>
       </c>
       <c r="E22" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44587</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Equipment Control</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G22" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Inspection</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor C</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -7488,32 +7488,32 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>211</v>
       </c>
       <c r="B23">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C23">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
         <v>44591</v>
       </c>
       <c r="E23" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44586</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G23" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
       <c r="M23">
         <v>4</v>
@@ -7524,32 +7524,32 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" ca="1" si="0"/>
-        <v>200</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
       </c>
       <c r="B24">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77030</v>
       </c>
       <c r="C24">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44590</v>
       </c>
       <c r="E24" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F24" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Equipment Control</v>
       </c>
       <c r="G24" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Inspection</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -7560,62 +7560,62 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" ca="1" si="0"/>
-        <v>204</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
       </c>
       <c r="B25">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>32301</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="D25" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44589</v>
       </c>
       <c r="E25" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F25" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Product</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Equipment Control</v>
       </c>
       <c r="G25" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchased</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" ca="1" si="0"/>
-        <v>226</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>216</v>
       </c>
       <c r="B26">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C26">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D26" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44591</v>
       </c>
       <c r="E26" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44589</v>
       </c>
       <c r="F26" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Process</v>
       </c>
       <c r="G26" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor A</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -7626,32 +7626,32 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>226</v>
       </c>
       <c r="B27">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C27">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
       </c>
       <c r="D27" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44588</v>
       </c>
       <c r="E27" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F27" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Equipment Control</v>
       </c>
       <c r="G27" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchasing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Manufacturing</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -7662,242 +7662,242 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" ca="1" si="0"/>
-        <v>222</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>225</v>
       </c>
       <c r="B28">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77030</v>
       </c>
       <c r="C28">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D28" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44589</v>
       </c>
       <c r="E28" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44587</v>
       </c>
       <c r="F28" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G28" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchasing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>204</v>
       </c>
       <c r="B29">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
+        <f t="shared" ca="1" si="2"/>
         <v>77030</v>
       </c>
       <c r="C29">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>0.5</v>
       </c>
       <c r="D29" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44593</v>
       </c>
       <c r="E29" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F29" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Equipment Control</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G29" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
-        <f t="shared" ca="1" si="0"/>
-        <v>218</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>220</v>
       </c>
       <c r="B30">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C30">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
       </c>
       <c r="D30" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44584</v>
       </c>
       <c r="E30" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44589</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44586</v>
       </c>
       <c r="F30" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G30" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Engineering</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>In Process</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ca="1" si="0"/>
-        <v>213</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>201</v>
       </c>
       <c r="B31">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C31">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>1</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">E31+RANDBETWEEN(-2,5)</f>
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="E31" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44586</v>
       </c>
       <c r="F31" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" ca="1" si="5"/>
         <v>Equipment Control</v>
       </c>
       <c r="G31" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="6"/>
         <v>Engineering</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ca="1" si="0"/>
-        <v>203</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>218</v>
       </c>
       <c r="B32">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>77707</v>
       </c>
       <c r="C32">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4.5</v>
       </c>
       <c r="D32" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44592</v>
       </c>
       <c r="E32" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44587</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44589</v>
       </c>
       <c r="F32" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Product</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Supplier</v>
       </c>
       <c r="G32" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Vendor C</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>215</v>
       </c>
       <c r="B33">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77030</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C33">
-        <f t="shared" ca="1" si="1"/>
+        <f t="shared" ca="1" si="3"/>
         <v>5.5</v>
       </c>
       <c r="D33" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44593</v>
       </c>
       <c r="E33" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
+        <f t="shared" ca="1" si="0"/>
         <v>44588</v>
       </c>
       <c r="F33" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Equipment Control</v>
       </c>
       <c r="G33" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Purchasing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ca="1" si="0"/>
-        <v>219</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>223</v>
       </c>
       <c r="B34">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>32301</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>49570</v>
       </c>
       <c r="C34">
-        <f t="shared" ca="1" si="1"/>
-        <v>4.5</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44588</v>
       </c>
-      <c r="E34" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
-      </c>
       <c r="F34" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Supplier</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G34" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Vendor C</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
-        <f t="shared" ca="1" si="0"/>
-        <v>212</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>217</v>
       </c>
       <c r="B35">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32301</v>
       </c>
       <c r="C35">
-        <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>44586</v>
       </c>
       <c r="E35" s="4">
-        <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44585</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>44588</v>
       </c>
       <c r="F35" t="str">
-        <f t="shared" ca="1" si="3"/>
-        <v>Process</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>Product</v>
       </c>
       <c r="G35" t="str">
-        <f t="shared" ca="1" si="4"/>
-        <v>Manufacturing</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>Purchased</v>
       </c>
     </row>
   </sheetData>
@@ -7951,19 +7951,19 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">VLOOKUP(F2,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">D2+RANDBETWEEN(-2,5)</f>
-        <v>44592</v>
+        <v>44583</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
@@ -7979,7 +7979,7 @@
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(80000,99999)</f>
-        <v>81198</v>
+        <v>81889</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -8012,19 +8012,19 @@
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A29" ca="1" si="0">VLOOKUP(F3,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B34" ca="1" si="1">RANDBETWEEN(1,6)/4</f>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C34" ca="1" si="2">D3+RANDBETWEEN(-2,5)</f>
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D34" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E34" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
@@ -8032,15 +8032,15 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G34" ca="1" si="6">VLOOKUP(F3,$O$2:$P$10,2,FALSE)</f>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" ca="1" si="7">RANDBETWEEN(80000,99999)</f>
-        <v>89916</v>
+        <v>92804</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -8073,19 +8073,19 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8093,15 +8093,15 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="7"/>
-        <v>96477</v>
+        <v>80099</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -8134,19 +8134,19 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8162,7 +8162,7 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>82380</v>
+        <v>85691</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -8195,35 +8195,35 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>INSP-001</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>87352</v>
+        <v>80303</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -8256,15 +8256,15 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -8272,19 +8272,19 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>96183</v>
+        <v>99087</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -8317,11 +8317,11 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8329,23 +8329,23 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>82946</v>
+        <v>88286</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -8378,35 +8378,35 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>INSP-001</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>97873</v>
+        <v>89383</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -8439,23 +8439,23 @@
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8467,7 +8467,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>90547</v>
+        <v>98997</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -8500,49 +8500,49 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77707</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44587</v>
+      </c>
+      <c r="D11" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44589</v>
       </c>
-      <c r="D11" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
-      </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Raw Material</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>INSP-001</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>96966</v>
+        <v>80412</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -8554,15 +8554,15 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>87006</v>
+        <v>99601</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -8577,15 +8577,15 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -8605,7 +8605,7 @@
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>82444</v>
+        <v>93252</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -8620,7 +8620,7 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
@@ -8628,27 +8628,27 @@
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44591</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44587</v>
       </c>
-      <c r="D14" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
-      </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="4"/>
         <v>Returns</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>99302</v>
+        <v>97947</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -8663,19 +8663,19 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44594</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8683,15 +8683,15 @@
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Process Audit</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>89102</v>
+        <v>84234</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -8706,7 +8706,7 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
@@ -8714,11 +8714,11 @@
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8726,15 +8726,15 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>93543</v>
+        <v>83980</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -8749,19 +8749,19 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44585</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8777,7 +8777,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>95705</v>
+        <v>89899</v>
       </c>
       <c r="N17">
         <v>6</v>
@@ -8792,69 +8792,69 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>96164</v>
+        <v>81591</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>95947</v>
+        <v>89838</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -8870,7 +8870,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8878,7 +8878,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8894,7 +8894,7 @@
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>92150</v>
+        <v>82701</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -8906,7 +8906,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
@@ -8918,7 +8918,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8926,15 +8926,15 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>97337</v>
+        <v>83836</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -8950,15 +8950,15 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8966,15 +8966,15 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Process Audit</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>88547</v>
+        <v>84770</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -8986,35 +8986,35 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>97842</v>
+        <v>87078</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -9026,45 +9026,45 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>93125</v>
+        <v>99623</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -9072,23 +9072,23 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>87513</v>
+        <v>88457</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -9100,23 +9100,23 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <v>44584</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9128,7 +9128,7 @@
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>96479</v>
+        <v>85786</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -9140,7 +9140,7 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
@@ -9148,61 +9148,61 @@
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>99544</v>
+        <v>99433</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>1.25</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>INSP-001</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>98290</v>
+        <v>86011</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -9214,11 +9214,11 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -9226,23 +9226,23 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Process Audit</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>93478</v>
+        <v>83222</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -9254,23 +9254,23 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f ca="1">VLOOKUP(F30,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B30">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C30" s="4">
         <f ca="1">D30+RANDBETWEEN(-2,5)</f>
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="E30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
@@ -9282,7 +9282,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>97907</v>
+        <v>88070</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -9294,11 +9294,11 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:A34" ca="1" si="8">VLOOKUP(F31,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -9310,19 +9310,19 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>84785</v>
+        <v>86536</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -9334,41 +9334,41 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="8"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>95940</v>
+        <v>99863</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="8"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
@@ -9376,33 +9376,33 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44583</v>
+      </c>
+      <c r="D33" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44585</v>
       </c>
-      <c r="D33" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
-      </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>98558</v>
+        <v>81544</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="8"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
@@ -9410,27 +9410,27 @@
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>88283</v>
+        <v>94178</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheetGenerator.xlsx
+++ b/TimeSheetGenerator.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\My Repo (Rutgers GitHub, editable)\20220125_ResourceDash\qa_resource_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F30FEA8-8AFD-49C5-BE70-BAFA536538C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF1429-0BBE-491C-85A3-0F5D6AA9E621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1687" yWindow="7107" windowWidth="18427" windowHeight="11746" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
+    <workbookView xWindow="-1687" yWindow="7107" windowWidth="18427" windowHeight="11746" activeTab="6" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
   </bookViews>
   <sheets>
     <sheet name="TopicGoals" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="Training" sheetId="8" r:id="rId9"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'New Product'!$A$1:$G$27</definedName>
     <definedName name="Slicer_First">#N/A</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -2291,8 +2292,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABFBCAC7-0978-4D1F-ADD5-2F042C33A98F}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,19 +3385,19 @@
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,9),$L$23:$M$31,2,FALSE)</f>
-        <v>MNO</v>
+        <v>PQR</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
-        <v>Verification</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
@@ -3419,7 +3420,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,9),$L$23:$M$31,2,FALSE)</f>
-        <v>DEF</v>
+        <v>JKL</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
@@ -3427,15 +3428,15 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" ca="1" si="3">RANDBETWEEN(1,6)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F34" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,2),$L$20:$M$21,2,FALSE)</f>
@@ -3454,11 +3455,11 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>DEF</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
@@ -3470,7 +3471,7 @@
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3505,7 +3506,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3524,7 +3525,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>STU</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3532,7 +3533,7 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
@@ -3540,7 +3541,7 @@
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3557,19 +3558,19 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3588,27 +3589,27 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>PQR</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L8">
         <v>2</v>
@@ -3623,27 +3624,27 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>VWX</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -3658,11 +3659,11 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>ABC</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
@@ -3670,15 +3671,15 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L10">
         <v>4</v>
@@ -3701,7 +3702,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
@@ -3709,11 +3710,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -3728,23 +3729,23 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3763,23 +3764,23 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>YZ1</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3792,23 +3793,23 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>ABC</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3827,7 +3828,7 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>GHI</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3835,19 +3836,19 @@
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L15">
         <v>2</v>
@@ -3862,27 +3863,27 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>YZ1</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>88927</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3897,23 +3898,23 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>VWX</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3932,23 +3933,23 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>JKL</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3967,23 +3968,23 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>GHI</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3996,27 +3997,27 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>JKL</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4031,11 +4032,11 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>GHI</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
@@ -4043,15 +4044,15 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4066,27 +4067,27 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>JKL</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>88927</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4095,15 +4096,15 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>ABC</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
@@ -4111,11 +4112,11 @@
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4130,15 +4131,15 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>ABC</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
@@ -4146,11 +4147,11 @@
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -4165,27 +4166,27 @@
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>VWX</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L25">
         <v>3</v>
@@ -4200,19 +4201,19 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>DEF</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4220,7 +4221,7 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L26">
         <v>4</v>
@@ -4239,15 +4240,15 @@
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4255,7 +4256,7 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L27">
         <v>5</v>
@@ -4270,27 +4271,27 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>VWX</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -4305,19 +4306,19 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>VWX</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -4340,15 +4341,15 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>DEF</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
@@ -4356,7 +4357,7 @@
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4375,23 +4376,23 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>GHI</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4410,23 +4411,23 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>MNO</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4439,11 +4440,11 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>ABC</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
@@ -4451,15 +4452,15 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4468,23 +4469,23 @@
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>MNO</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4539,23 +4540,23 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>6070</v>
+        <v>6039</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
-        <v>GHI</v>
+        <v>STU</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,9)/4</f>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
@@ -4563,7 +4564,7 @@
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -4575,15 +4576,15 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A36" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>6226</v>
+        <v>7499</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B36" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C36" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D36" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
@@ -4591,7 +4592,7 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E36" ca="1" si="4">RANDBETWEEN(1,9)/4</f>
-        <v>0.75</v>
+        <v>2.25</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F36" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
@@ -4599,7 +4600,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G36" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -4611,31 +4612,31 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>7755</v>
+        <v>6657</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>DEF</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O4">
         <v>3</v>
@@ -4647,27 +4648,27 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>7037</v>
+        <v>6441</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>YZ1</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4683,31 +4684,31 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7808</v>
+        <v>6628</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O6">
         <v>5</v>
@@ -4719,7 +4720,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>7322</v>
+        <v>7406</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4727,7 +4728,7 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
@@ -4735,15 +4736,15 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O7">
         <v>6</v>
@@ -4755,15 +4756,15 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7182</v>
+        <v>7646</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>YZ1</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
@@ -4771,7 +4772,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4779,7 +4780,7 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O8">
         <v>7</v>
@@ -4791,27 +4792,27 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7880</v>
+        <v>7085</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>PQR</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4827,11 +4828,11 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>6212</v>
+        <v>7425</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>YZ1</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4839,15 +4840,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4863,27 +4864,27 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>7195</v>
+        <v>7528</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4893,19 +4894,19 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>7016</v>
+        <v>6718</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>ABC</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
@@ -4913,11 +4914,11 @@
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -4929,23 +4930,23 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6937</v>
+        <v>6181</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>ABC</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4965,31 +4966,31 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>7575</v>
+        <v>6810</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>DEF</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -5001,19 +5002,19 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>7987</v>
+        <v>6638</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>JKL</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
@@ -5021,7 +5022,7 @@
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5037,7 +5038,7 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>7651</v>
+        <v>6077</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5045,7 +5046,7 @@
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
@@ -5053,15 +5054,15 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -5073,31 +5074,31 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7643</v>
+        <v>6189</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>DEF</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O17">
         <v>6</v>
@@ -5109,11 +5110,11 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7883</v>
+        <v>6407</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>MNO</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5121,15 +5122,15 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5139,31 +5140,31 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7321</v>
+        <v>6358</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>STU</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O19">
         <v>1</v>
@@ -5175,27 +5176,27 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>7511</v>
+        <v>7109</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5211,11 +5212,11 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>7757</v>
+        <v>6103</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>PQR</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5223,15 +5224,15 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77707</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5247,11 +5248,11 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>6818</v>
+        <v>7026</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>VWX</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5259,19 +5260,19 @@
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O22">
         <v>4</v>
@@ -5283,31 +5284,31 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>7788</v>
+        <v>6733</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>MNO</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>88927</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.25</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -5319,27 +5320,27 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>7109</v>
+        <v>7701</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>PQR</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5349,27 +5350,27 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>7556</v>
+        <v>7841</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>PQR</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5385,27 +5386,27 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6667</v>
+        <v>6865</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>GHI</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5421,61 +5422,61 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>6714</v>
+        <v>6807</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>STU</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>7166</v>
+        <v>7796</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>YZ1</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O28">
         <v>1</v>
@@ -5487,15 +5488,15 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>6361</v>
+        <v>6957</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>GHI</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
@@ -5503,11 +5504,11 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5523,23 +5524,23 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>7346</v>
+        <v>6937</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>YZ1</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>88927</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5559,23 +5560,23 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>6199</v>
+        <v>7175</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>DEF</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5595,57 +5596,57 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>6033</v>
+        <v>6137</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>MNO</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>7269</v>
+        <v>7277</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>MNO</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5655,11 +5656,11 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>6070</v>
+        <v>7588</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>VWX</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5667,25 +5668,25 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>6843</v>
+        <v>6305</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5693,45 +5694,45 @@
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>7862</v>
+        <v>7071</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>PQR</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5749,17 +5750,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037E0A5-0546-4945-94DA-A6A9EB1D30E2}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -5796,11 +5797,11 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>7905</v>
+        <v>6375</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
-        <v>NP2</v>
+        <v>NP3</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
@@ -5812,15 +5813,15 @@
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$24:$P$25,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O2">
         <v>2</v>
@@ -5831,32 +5832,32 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A27" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>7949</v>
+        <f t="shared" ref="A3:A35" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
+        <v>7629</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:B27" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
-        <v>NP1</v>
+        <f t="shared" ref="B3:B35" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
+        <v>NP2</v>
       </c>
       <c r="C3" t="str">
-        <f t="shared" ref="C3:C27" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
+        <f t="shared" ref="C3:C35" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
         <v>Verification &amp; Validation</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D27" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>49570</v>
+        <f t="shared" ref="D3:D35" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
+        <v>29436</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E27" ca="1" si="4">RANDBETWEEN(1,11)/2</f>
-        <v>1</v>
+        <f t="shared" ref="E3:E35" ca="1" si="4">RANDBETWEEN(1,11)/2</f>
+        <v>0.5</v>
       </c>
       <c r="F3" s="4">
-        <f t="shared" ref="F3:F27" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
-        <v>44585</v>
+        <f t="shared" ref="F3:F35" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
+        <v>44589</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G27" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$24:$P$25,2,FALSE)</f>
-        <v>Late</v>
+        <f t="shared" ref="G3:G35" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$24:$P$25,2,FALSE)</f>
+        <v>On Time</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -5868,11 +5869,11 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>7901</v>
+        <v>6349</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP2</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5884,11 +5885,11 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5904,11 +5905,11 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6427</v>
+        <v>7911</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5916,25 +5917,25 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6707</v>
+        <v>7302</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5946,29 +5947,29 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>6503</v>
+        <v>7425</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5976,15 +5977,15 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5994,41 +5995,41 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7259</v>
+        <v>6909</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>6535</v>
+        <v>6410</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6036,15 +6037,15 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6054,11 +6055,11 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7818</v>
+        <v>7688</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6070,33 +6071,33 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>7894</v>
+        <v>7938</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
@@ -6104,11 +6105,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O11">
         <v>1</v>
@@ -6120,11 +6121,11 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>7323</v>
+        <v>6820</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6132,19 +6133,19 @@
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -6156,7 +6157,7 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6267</v>
+        <v>6489</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6168,11 +6169,11 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6180,7 +6181,7 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -6192,11 +6193,11 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6033</v>
+        <v>6571</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP3</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6208,15 +6209,15 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O14">
         <v>4</v>
@@ -6228,27 +6229,27 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>7009</v>
+        <v>6906</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP3</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6264,11 +6265,11 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>7067</v>
+        <v>6681</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6276,15 +6277,15 @@
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6300,27 +6301,27 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>6968</v>
+        <v>7870</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6330,11 +6331,11 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>6777</v>
+        <v>7761</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6342,19 +6343,19 @@
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O18">
         <v>1</v>
@@ -6366,7 +6367,7 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>6195</v>
+        <v>7729</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6378,11 +6379,11 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6402,11 +6403,11 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>7464</v>
+        <v>6696</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP2</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6422,7 +6423,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6438,7 +6439,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>6733</v>
+        <v>6397</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6450,19 +6451,19 @@
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O21">
         <v>4</v>
@@ -6474,11 +6475,11 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>6350</v>
+        <v>7805</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6490,7 +6491,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6498,7 +6499,7 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O22">
         <v>5</v>
@@ -6510,15 +6511,15 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6031</v>
+        <v>6181</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP2</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
@@ -6526,7 +6527,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6540,27 +6541,27 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>6731</v>
+        <v>6330</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6576,7 +6577,7 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>7394</v>
+        <v>6601</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6588,11 +6589,11 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6600,7 +6601,7 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -6612,27 +6613,27 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6536</v>
+        <v>6445</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="3"/>
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
         <v>77030</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6642,15 +6643,15 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>7203</v>
+        <v>7581</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP3</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
@@ -6658,11 +6659,11 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6676,6 +6677,34 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>6246</v>
+      </c>
+      <c r="B28" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP4</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Quality Planning</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="3"/>
+        <v>77030</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44586</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Late</v>
+      </c>
       <c r="O28">
         <v>2</v>
       </c>
@@ -6683,7 +6712,218 @@
         <v>97</v>
       </c>
     </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>7098</v>
+      </c>
+      <c r="B29" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP2</v>
+      </c>
+      <c r="C29" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Verification &amp; Validation</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="3"/>
+        <v>32301</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44589</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>On Time</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>6731</v>
+      </c>
+      <c r="B30" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP2</v>
+      </c>
+      <c r="C30" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Verification &amp; Validation</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="3"/>
+        <v>29436</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44589</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Late</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>7318</v>
+      </c>
+      <c r="B31" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP2</v>
+      </c>
+      <c r="C31" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Verification &amp; Validation</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="3"/>
+        <v>32301</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.5</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44585</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Late</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>7648</v>
+      </c>
+      <c r="B32" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP1</v>
+      </c>
+      <c r="C32" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Quality Planning</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="3"/>
+        <v>88927</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44588</v>
+      </c>
+      <c r="G32" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>Late</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>6054</v>
+      </c>
+      <c r="B33" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP4</v>
+      </c>
+      <c r="C33" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Quality Planning</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="3"/>
+        <v>77030</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44587</v>
+      </c>
+      <c r="G33" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>On Time</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>7907</v>
+      </c>
+      <c r="B34" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP1</v>
+      </c>
+      <c r="C34" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Verification &amp; Validation</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="3"/>
+        <v>77707</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44589</v>
+      </c>
+      <c r="G34" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>On Time</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>6749</v>
+      </c>
+      <c r="B35" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>NP3</v>
+      </c>
+      <c r="C35" t="str">
+        <f t="shared" ca="1" si="2"/>
+        <v>Verification &amp; Validation</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="3"/>
+        <v>32301</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="4"/>
+        <v>4.5</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" ca="1" si="5"/>
+        <v>44588</v>
+      </c>
+      <c r="G35" t="str">
+        <f t="shared" ca="1" si="6"/>
+        <v>On Time</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:G27" xr:uid="{6037E0A5-0546-4945-94DA-A6A9EB1D30E2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6731,7 +6971,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(200,230)</f>
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B2">
         <v>77030</v>
@@ -6741,11 +6981,11 @@
       </c>
       <c r="D2" s="4">
         <f ca="1">E2+RANDBETWEEN(-2,5)</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:E35" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
@@ -6757,23 +6997,23 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A35" ca="1" si="1">RANDBETWEEN(200,230)</f>
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B35" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">E3+RANDBETWEEN(-2,5)</f>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
@@ -6781,7 +7021,7 @@
       </c>
       <c r="G3" t="str">
         <f ca="1">VLOOKUP(F3,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Vendor C</v>
+        <v>Vendor B</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -6802,19 +7042,19 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C35" ca="1" si="3">RANDBETWEEN(1,11)/2</f>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D35" ca="1" si="4">E4+RANDBETWEEN(-2,5)</f>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6822,11 +7062,11 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F35" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
-        <v>Supplier</v>
+        <v>Process</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G35" ca="1" si="6">VLOOKUP(F4,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Vendor B</v>
+        <v>Purchasing</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -6847,31 +7087,31 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44587</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44585</v>
       </c>
-      <c r="E5" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
-      </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Product</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor A</v>
+        <v>Purchased</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -6892,31 +7132,31 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor C</v>
+        <v>Engineering</v>
       </c>
       <c r="M6">
         <v>4</v>
@@ -6937,37 +7177,37 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44587</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44588</v>
       </c>
-      <c r="E7" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
-      </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Engineering</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
@@ -6979,7 +7219,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -6987,107 +7227,107 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44591</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor C</v>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>230</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Supplier</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchasing</v>
+        <v>Engineering</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
@@ -7095,15 +7335,15 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44584</v>
+        <v>44587</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7111,25 +7351,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Engineering</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7137,11 +7377,11 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Supplier</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Vendor A</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -7156,7 +7396,7 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
@@ -7164,23 +7404,23 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44594</v>
+        <v>44590</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Product</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor A</v>
+        <v>Purchased</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -7195,11 +7435,11 @@
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
@@ -7211,7 +7451,7 @@
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7219,7 +7459,7 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Vendor C</v>
       </c>
       <c r="M15">
         <v>3</v>
@@ -7234,19 +7474,19 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44584</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7254,11 +7494,11 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Inspection</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -7273,31 +7513,31 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="E17" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Engineering</v>
+        <v>Manufacturing</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -7312,31 +7552,31 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44592</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Inspection</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -7351,37 +7591,37 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E19" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Product</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
@@ -7389,7 +7629,7 @@
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -7397,15 +7637,15 @@
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Inspection</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -7417,7 +7657,7 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
@@ -7425,23 +7665,23 @@
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1.5</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44593</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44588</v>
       </c>
-      <c r="E21" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
-      </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Supplier</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Vendor A</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -7453,31 +7693,31 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>205</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor C</v>
+        <v>Inspection</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -7489,31 +7729,31 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="E23" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Inspection</v>
       </c>
       <c r="M23">
         <v>4</v>
@@ -7525,23 +7765,23 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7561,23 +7801,23 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44590</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44589</v>
-      </c>
-      <c r="E25" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7591,15 +7831,15 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -7607,15 +7847,15 @@
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Product</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Purchased</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -7627,7 +7867,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
@@ -7635,11 +7875,11 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="E27" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7663,7 +7903,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
@@ -7671,11 +7911,11 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7687,13 +7927,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Vendor A</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
@@ -7701,29 +7941,29 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
@@ -7735,25 +7975,25 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44584</v>
+        <v>44590</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>In Process</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
@@ -7761,29 +8001,29 @@
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">E31+RANDBETWEEN(-2,5)</f>
+        <v>44593</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44588</v>
       </c>
-      <c r="E31" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
-      </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Engineering</v>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
@@ -7791,41 +8031,41 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Product</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor C</v>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7833,33 +8073,33 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Supplier</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>206</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44591</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7867,13 +8107,13 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>In Process</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
@@ -7881,11 +8121,11 @@
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7951,7 +8191,7 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">VLOOKUP(F2,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
@@ -7959,27 +8199,27 @@
       </c>
       <c r="C2" s="4">
         <f ca="1">D2+RANDBETWEEN(-2,5)</f>
-        <v>44583</v>
+        <v>44586</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(F2,$O$2:$P$10,2,FALSE)</f>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(80000,99999)</f>
-        <v>81889</v>
+        <v>87385</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -8016,11 +8256,11 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B34" ca="1" si="1">RANDBETWEEN(1,6)/4</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C34" ca="1" si="2">D3+RANDBETWEEN(-2,5)</f>
-        <v>44593</v>
+        <v>44592</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D34" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
@@ -8032,15 +8272,15 @@
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
-        <v>AUDI-028</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G34" ca="1" si="6">VLOOKUP(F3,$O$2:$P$10,2,FALSE)</f>
-        <v>Supplier Audits</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" ca="1" si="7">RANDBETWEEN(80000,99999)</f>
-        <v>92804</v>
+        <v>86347</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -8073,7 +8313,7 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>88927</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
@@ -8081,11 +8321,11 @@
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8093,15 +8333,15 @@
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="7"/>
-        <v>80099</v>
+        <v>90491</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -8134,35 +8374,35 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44593</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>85691</v>
+        <v>81680</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -8195,19 +8435,19 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8215,15 +8455,15 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>80303</v>
+        <v>80016</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -8256,35 +8496,35 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>99087</v>
+        <v>86700</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -8325,7 +8565,7 @@
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -8333,19 +8573,19 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>88286</v>
+        <v>88500</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -8378,7 +8618,7 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
@@ -8386,27 +8626,27 @@
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>89383</v>
+        <v>82718</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -8447,27 +8687,27 @@
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>98997</v>
+        <v>95213</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -8500,11 +8740,11 @@
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8516,41 +8756,41 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>80412</v>
+        <v>87981</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44594</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8562,7 +8802,7 @@
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>99601</v>
+        <v>91393</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -8577,19 +8817,19 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44586</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8597,15 +8837,15 @@
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>93252</v>
+        <v>94675</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -8624,11 +8864,11 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44592</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -8636,19 +8876,19 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>97947</v>
+        <v>97590</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -8663,35 +8903,35 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44594</v>
+        <v>44589</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>84234</v>
+        <v>84174</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -8706,19 +8946,19 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44583</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8726,15 +8966,15 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Process Audit</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>83980</v>
+        <v>83762</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -8753,19 +8993,19 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8777,7 +9017,7 @@
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>89899</v>
+        <v>82808</v>
       </c>
       <c r="N17">
         <v>6</v>
@@ -8792,11 +9032,11 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8804,11 +9044,11 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8820,17 +9060,17 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>81591</v>
+        <v>87559</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8842,19 +9082,19 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>89838</v>
+        <v>99276</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -8866,35 +9106,35 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44585</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>82701</v>
+        <v>81238</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -8906,19 +9146,19 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8926,15 +9166,15 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>83836</v>
+        <v>94112</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -8946,35 +9186,35 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>84770</v>
+        <v>97622</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -8986,35 +9226,35 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44589</v>
+      </c>
+      <c r="D23" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44586</v>
       </c>
-      <c r="D23" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
-      </c>
       <c r="E23" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>87078</v>
+        <v>87476</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -9026,69 +9266,69 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>INSP-001</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>99623</v>
+        <v>85488</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>INSP-001</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>88457</v>
+        <v>81582</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -9100,35 +9340,35 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44584</v>
+        <v>44591</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Process Audit</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>85786</v>
+        <v>88338</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -9140,23 +9380,23 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44589</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9168,41 +9408,41 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>99433</v>
+        <v>91301</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>86011</v>
+        <v>83570</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -9214,19 +9454,19 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44588</v>
+        <v>44592</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9234,15 +9474,15 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>83222</v>
+        <v>84551</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -9254,23 +9494,23 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f ca="1">VLOOKUP(F30,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B30">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="C30" s="4">
         <f ca="1">D30+RANDBETWEEN(-2,5)</f>
-        <v>44591</v>
+        <v>44587</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="F30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
@@ -9282,7 +9522,7 @@
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>88070</v>
+        <v>82109</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -9294,11 +9534,11 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ref="A31:A34" ca="1" si="8">VLOOKUP(F31,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -9310,7 +9550,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9322,7 +9562,7 @@
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>86536</v>
+        <v>97201</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -9338,31 +9578,31 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44594</v>
+        <v>44585</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>Finished Good</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>INSP-001</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>99863</v>
+        <v>94174</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -9376,27 +9616,27 @@
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44583</v>
+        <v>44591</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>81544</v>
+        <v>81885</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -9406,19 +9646,19 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44591</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9430,7 +9670,7 @@
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>94178</v>
+        <v>90886</v>
       </c>
     </row>
   </sheetData>

--- a/TimeSheetGenerator.xlsx
+++ b/TimeSheetGenerator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Desktop\My Repo (Rutgers GitHub, editable)\20220125_ResourceDash\qa_resource_dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00CF1429-0BBE-491C-85A3-0F5D6AA9E621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE14E058-721B-400B-9B57-380467E84908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1687" yWindow="7107" windowWidth="18427" windowHeight="11746" activeTab="6" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" firstSheet="1" activeTab="4" xr2:uid="{D544725C-BD42-4052-AB2A-BC3BA7A7CD82}"/>
   </bookViews>
   <sheets>
     <sheet name="TopicGoals" sheetId="1" r:id="rId1"/>
@@ -31,6 +31,7 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="141">
   <si>
     <t>CAPA</t>
   </si>
@@ -477,6 +478,9 @@
   </si>
   <si>
     <t>Vendor C</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -512,7 +516,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -520,6 +524,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1459,16 +1464,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>338667</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33867</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>97895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1502,9 +1507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>300565</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>186265</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
@@ -2332,7 +2337,7 @@
         <v>0.25</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C6" si="0">40*B3</f>
+        <f>40*B3</f>
         <v>10</v>
       </c>
     </row>
@@ -2344,7 +2349,7 @@
         <v>0.3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f>40*B4</f>
         <v>12</v>
       </c>
     </row>
@@ -2356,7 +2361,7 @@
         <v>0.15</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f>40*B5</f>
         <v>6</v>
       </c>
     </row>
@@ -2368,7 +2373,7 @@
         <v>0.1</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f>40*B6</f>
         <v>4</v>
       </c>
     </row>
@@ -2382,7 +2387,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3250,19 +3255,21 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19D40C68-7E8D-4DEF-9F59-50E2989E681E}">
-  <dimension ref="A2:B10"/>
+  <dimension ref="A2:K35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -3270,7 +3277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -3278,7 +3285,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -3286,7 +3293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -3294,7 +3301,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -3302,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
@@ -3310,7 +3317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>4</v>
       </c>
@@ -3318,12 +3325,463 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="1">
         <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>32301</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A13,CAPA!E:E)</f>
+        <v>31</v>
+      </c>
+      <c r="G13">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A13,Inspection!E:E)</f>
+        <v>7.5</v>
+      </c>
+      <c r="H13">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A13,'New Product'!E:E)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I13">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A13,Audit!C:C)</f>
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A13,Training!B:B)</f>
+        <v>10.5</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:K18" ca="1" si="0">SUM(F13:J13)</f>
+        <v>80.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>49570</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A14,CAPA!E:E)</f>
+        <v>22</v>
+      </c>
+      <c r="G14">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A14,Inspection!E:E)</f>
+        <v>9.75</v>
+      </c>
+      <c r="H14">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A14,'New Product'!E:E)</f>
+        <v>14.5</v>
+      </c>
+      <c r="I14">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A14,Audit!C:C)</f>
+        <v>18</v>
+      </c>
+      <c r="J14">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A14,Training!B:B)</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="0"/>
+        <v>64.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>77030</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A15,CAPA!E:E)</f>
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A15,Inspection!E:E)</f>
+        <v>7.25</v>
+      </c>
+      <c r="H15">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A15,'New Product'!E:E)</f>
+        <v>8.5</v>
+      </c>
+      <c r="I15">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A15,Audit!C:C)</f>
+        <v>32.5</v>
+      </c>
+      <c r="J15">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A15,Training!B:B)</f>
+        <v>7</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="0"/>
+        <v>69.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>77707</v>
+      </c>
+      <c r="B16" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A16,CAPA!E:E)</f>
+        <v>26</v>
+      </c>
+      <c r="G16">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A16,Inspection!E:E)</f>
+        <v>1.75</v>
+      </c>
+      <c r="H16">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A16,'New Product'!E:E)</f>
+        <v>15.5</v>
+      </c>
+      <c r="I16">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A16,Audit!C:C)</f>
+        <v>27</v>
+      </c>
+      <c r="J16">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A16,Training!B:B)</f>
+        <v>3.5</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="0"/>
+        <v>73.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>29436</v>
+      </c>
+      <c r="B17" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F17">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A17,CAPA!E:E)</f>
+        <v>22</v>
+      </c>
+      <c r="G17">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A17,Inspection!E:E)</f>
+        <v>4.5</v>
+      </c>
+      <c r="H17">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A17,'New Product'!E:E)</f>
+        <v>19</v>
+      </c>
+      <c r="I17">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A17,Audit!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A17,Training!B:B)</f>
+        <v>8</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="0"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88927</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18">
+        <f ca="1">SUMIF(CAPA!D:D,TEST_radar!A18,CAPA!E:E)</f>
+        <v>5</v>
+      </c>
+      <c r="G18">
+        <f ca="1">SUMIF(Inspection!D:D,TEST_radar!A18,Inspection!E:E)</f>
+        <v>8.75</v>
+      </c>
+      <c r="H18">
+        <f ca="1">SUMIF('New Product'!D:D,TEST_radar!A18,'New Product'!E:E)</f>
+        <v>12.5</v>
+      </c>
+      <c r="I18">
+        <f ca="1">SUMIF(Audit!B:B,TEST_radar!A18,Audit!C:C)</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f ca="1">SUMIF(Training!A:A,TEST_radar!A18,Training!B:B)</f>
+        <v>3.25</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="0"/>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F21" s="5">
+        <f t="shared" ref="F21:J26" ca="1" si="1">F13/$K$13*5</f>
+        <v>1.9254658385093169</v>
+      </c>
+      <c r="G21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.46583850931677018</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77639751552795022</v>
+      </c>
+      <c r="I21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1801242236024845</v>
+      </c>
+      <c r="J21" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.65217391304347827</v>
+      </c>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3664596273291927</v>
+      </c>
+      <c r="G22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.60559006211180133</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.90062111801242239</v>
+      </c>
+      <c r="I22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1180124223602486</v>
+      </c>
+      <c r="J22" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86956521739130432</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.4503105590062112</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.52795031055900621</v>
+      </c>
+      <c r="I23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>2.0186335403726705</v>
+      </c>
+      <c r="J23" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.43478260869565216</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6149068322981366</v>
+      </c>
+      <c r="G24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.10869565217391304</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.96273291925465843</v>
+      </c>
+      <c r="I24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6770186335403727</v>
+      </c>
+      <c r="J24" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.21739130434782608</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.3664596273291927</v>
+      </c>
+      <c r="G25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.27950310559006214</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.1801242236024845</v>
+      </c>
+      <c r="I25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.49689440993788814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.3105590062111801</v>
+      </c>
+      <c r="G26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.54347826086956519</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.77639751552795022</v>
+      </c>
+      <c r="I26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20186335403726707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>10</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
+        <v>10</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <f>SUM(F29:J29)</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>F29/K29*5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>29</v>
+      </c>
+      <c r="G32">
+        <f>F32/SUM($F$32:$F$35)*5</f>
+        <v>2.8712871287128712</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>10</v>
+      </c>
+      <c r="G33">
+        <f>F33/SUM($F$32:$F$35)*5</f>
+        <v>0.99009900990099009</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>10.5</v>
+      </c>
+      <c r="G34">
+        <f>F34/SUM($F$32:$F$35)*5</f>
+        <v>1.0396039603960396</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <f>F35/SUM($F$32:$F$35)*5</f>
+        <v>9.9009900990099015E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3343,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B70917A4-151D-4730-A53D-00B78C6DB091}">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,7 +3810,7 @@
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3389,23 +3847,23 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,6)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$L$20:$M$21,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -3420,7 +3878,7 @@
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B34" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,9),$L$23:$M$31,2,FALSE)</f>
-        <v>JKL</v>
+        <v>ABC</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C34" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$L$2:$M$5,2,FALSE)</f>
@@ -3428,19 +3886,19 @@
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D34" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,6),$L$7:$M$12,2,FALSE)</f>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E34" ca="1" si="3">RANDBETWEEN(1,6)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F34" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,5),$L$14:$M$18,2,FALSE)</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,2),$L$20:$M$21,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L3">
         <v>2</v>
@@ -3455,7 +3913,7 @@
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>MNO</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3463,19 +3921,19 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -3490,7 +3948,7 @@
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>PQR</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3498,15 +3956,15 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3525,7 +3983,7 @@
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>DEF</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3533,15 +3991,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3554,23 +4012,23 @@
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>GHI</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3589,23 +4047,23 @@
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>PQR</v>
+        <v>STU</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3624,7 +4082,7 @@
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>ABC</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3632,7 +4090,7 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="3"/>
@@ -3640,7 +4098,7 @@
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3659,7 +4117,7 @@
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>JKL</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3667,15 +4125,15 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3694,7 +4152,7 @@
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>STU</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3702,7 +4160,7 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="3"/>
@@ -3710,11 +4168,11 @@
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L11">
         <v>5</v>
@@ -3729,19 +4187,19 @@
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>MNO</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -3749,7 +4207,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -3764,23 +4222,23 @@
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>GHI</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3793,23 +4251,23 @@
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>DEF</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3828,19 +4286,19 @@
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>DEF</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -3863,7 +4321,7 @@
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>YZ1</v>
+        <v>MNO</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3875,7 +4333,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -3883,7 +4341,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L16">
         <v>3</v>
@@ -3898,15 +4356,15 @@
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77030</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="3"/>
@@ -3914,7 +4372,7 @@
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -3933,15 +4391,15 @@
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>DEF</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="3"/>
@@ -3949,11 +4407,11 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -3968,19 +4426,19 @@
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -3988,7 +4446,7 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -3997,27 +4455,27 @@
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>YZ1</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -4032,27 +4490,27 @@
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>VWX</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4067,27 +4525,27 @@
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>JKL</v>
+        <v>MNO</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>88927</v>
+        <v>77707</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -4096,27 +4554,27 @@
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>PQR</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -4131,23 +4589,23 @@
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>STU</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Risk Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4170,19 +4628,19 @@
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4201,11 +4659,11 @@
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>MNO</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Planning &amp; Implementation</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
@@ -4213,11 +4671,11 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4236,7 +4694,7 @@
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>STU</v>
+        <v>MNO</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4244,7 +4702,7 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="3"/>
@@ -4252,7 +4710,7 @@
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4271,27 +4729,27 @@
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Verification</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="L28">
         <v>6</v>
@@ -4306,7 +4764,7 @@
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>VWX</v>
+        <v>JKL</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4314,19 +4772,19 @@
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L29">
         <v>7</v>
@@ -4341,7 +4799,7 @@
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>DEF</v>
+        <v>ABC</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4349,19 +4807,19 @@
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="L30">
         <v>8</v>
@@ -4376,11 +4834,11 @@
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>GHI</v>
+        <v>PQR</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Verification</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="2"/>
@@ -4388,11 +4846,11 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4411,23 +4869,23 @@
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>MNO</v>
+        <v>GHI</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Root Cause Analysis</v>
+        <v>Verification</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77707</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -4440,27 +4898,27 @@
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>ABC</v>
+        <v>STU</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="2"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -4473,23 +4931,23 @@
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>Planning &amp; Implementation</v>
+        <v>Risk Analysis</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
   </sheetData>
@@ -4540,27 +4998,27 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>6039</v>
+        <v>7286</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
-        <v>STU</v>
+        <v>DEF</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,9)/4</f>
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
@@ -4576,23 +5034,23 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A36" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>7499</v>
+        <v>7438</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B36" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,9),$O$2:$P$10,2,FALSE)</f>
-        <v>VWX</v>
+        <v>MNO</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C36" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$O$28:$P$31,2,FALSE)</f>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D36" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$12:$P$17,2,FALSE)</f>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E36" ca="1" si="4">RANDBETWEEN(1,9)/4</f>
-        <v>2.25</v>
+        <v>0.75</v>
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F36" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$19:$P$23,2,FALSE)</f>
@@ -4600,7 +5058,7 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G36" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$25:$P$26,2,FALSE)</f>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O3">
         <v>2</v>
@@ -4612,27 +5070,27 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6657</v>
+        <v>6413</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>JKL</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>2.25</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4648,11 +5106,11 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>6441</v>
+        <v>7714</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>PQR</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4660,19 +5118,19 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O5">
         <v>4</v>
@@ -4684,11 +5142,11 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>6628</v>
+        <v>6674</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>YZ1</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4696,15 +5154,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4720,7 +5178,7 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>7406</v>
+        <v>7796</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4728,19 +5186,19 @@
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4756,27 +5214,27 @@
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>7646</v>
+        <v>6560</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>PQR</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>88927</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4792,15 +5250,15 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>7085</v>
+        <v>6690</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>DEF</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
@@ -4808,7 +5266,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4816,7 +5274,7 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O9">
         <v>8</v>
@@ -4828,11 +5286,11 @@
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7425</v>
+        <v>7463</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>JKL</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4840,19 +5298,19 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O10">
         <v>9</v>
@@ -4864,11 +5322,11 @@
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>7528</v>
+        <v>7535</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>JKL</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4876,25 +5334,25 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6718</v>
+        <v>7017</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -4902,15 +5360,15 @@
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4918,7 +5376,7 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O12">
         <v>1</v>
@@ -4930,11 +5388,11 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6181</v>
+        <v>6330</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>ABC</v>
+        <v>VWX</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -4942,15 +5400,15 @@
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -4966,23 +5424,23 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6810</v>
+        <v>6895</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>YZ1</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -4990,7 +5448,7 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O14">
         <v>3</v>
@@ -5002,27 +5460,27 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>6638</v>
+        <v>7522</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>JKL</v>
+        <v>DEF</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>1.75</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5038,31 +5496,31 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>6077</v>
+        <v>6297</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>YZ1</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>Returns</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O16">
         <v>5</v>
@@ -5074,15 +5532,15 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>6189</v>
+        <v>6627</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>VWX</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
@@ -5090,11 +5548,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5110,27 +5568,27 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>6407</v>
+        <v>7437</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>DEF</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5140,11 +5598,11 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>6358</v>
+        <v>6040</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>DEF</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5152,11 +5610,11 @@
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5176,19 +5634,19 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>7109</v>
+        <v>7322</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>MNO</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
@@ -5196,11 +5654,11 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O20">
         <v>2</v>
@@ -5212,27 +5670,27 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>6103</v>
+        <v>6667</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>MNO</v>
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>1.75</v>
+        <v>1</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5248,31 +5706,31 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>7026</v>
+        <v>6776</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="F22" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O22">
         <v>4</v>
@@ -5284,7 +5742,7 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6733</v>
+        <v>6459</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -5292,23 +5750,23 @@
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O23">
         <v>5</v>
@@ -5320,27 +5778,27 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>7701</v>
+        <v>7974</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>VWX</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>0.75</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5350,11 +5808,11 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>7841</v>
+        <v>7573</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>STU</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5362,15 +5820,15 @@
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>0.25</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5386,31 +5844,31 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6865</v>
+        <v>6371</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>DEF</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Finished Good</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F26" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O26">
         <v>2</v>
@@ -5422,11 +5880,11 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>6807</v>
+        <v>6659</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>ABC</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5434,45 +5892,45 @@
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>7796</v>
+        <v>6525</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>STU</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5488,27 +5946,27 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>6957</v>
+        <v>6006</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>GHI</v>
+        <v>STU</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5524,23 +5982,23 @@
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>6937</v>
+        <v>6245</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>YZ1</v>
+        <v>JKL</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Raw Material</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5560,31 +6018,31 @@
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>7175</v>
+        <v>6758</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>DEF</v>
+        <v>ABC</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
-        <v>1.25</v>
+        <v>0.75</v>
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O31">
         <v>4</v>
@@ -5596,19 +6054,19 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>6137</v>
+        <v>6032</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>ABC</v>
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
@@ -5616,7 +6074,7 @@
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5626,19 +6084,19 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>7277</v>
+        <v>7427</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>MNO</v>
+        <v>STU</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
@@ -5646,37 +6104,37 @@
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>7588</v>
+        <v>7186</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>VWX</v>
+        <v>GHI</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.75</v>
+        <v>1.75</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5686,19 +6144,19 @@
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>6305</v>
+        <v>6195</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>STU</v>
+        <v>DEF</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
@@ -5706,7 +6164,7 @@
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5716,23 +6174,23 @@
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <f t="shared" ca="1" si="0"/>
-        <v>7071</v>
+        <v>6213</v>
       </c>
       <c r="B36" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>PQR</v>
+        <v>GHI</v>
       </c>
       <c r="C36" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="4"/>
-        <v>2.25</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5740,7 +6198,7 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
   </sheetData>
@@ -5752,7 +6210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037E0A5-0546-4945-94DA-A6A9EB1D30E2}">
   <dimension ref="A1:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -5797,11 +6255,11 @@
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(6000,8000)</f>
-        <v>6375</v>
+        <v>7617</v>
       </c>
       <c r="B2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
@@ -5809,11 +6267,11 @@
       </c>
       <c r="D2">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E2">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
@@ -5833,19 +6291,19 @@
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A35" ca="1" si="0">RANDBETWEEN(6000,8000)</f>
-        <v>7629</v>
+        <v>7334</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:B35" ca="1" si="1">VLOOKUP(RANDBETWEEN(1,4),$O$1:$P$4,2,FALSE)</f>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" ref="C3:C35" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,2),$O$27:$P$28,2,FALSE)</f>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D3">
         <f t="shared" ref="D3:D35" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E35" ca="1" si="4">RANDBETWEEN(1,11)/2</f>
@@ -5853,11 +6311,11 @@
       </c>
       <c r="F3" s="4">
         <f t="shared" ref="F3:F35" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,5),$O$18:$P$22,2,FALSE)</f>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G35" ca="1" si="6">VLOOKUP(RANDBETWEEN(1,2),$O$24:$P$25,2,FALSE)</f>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O3">
         <v>3</v>
@@ -5869,11 +6327,11 @@
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>6349</v>
+        <v>6563</v>
       </c>
       <c r="B4" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5881,19 +6339,19 @@
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F4" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O4">
         <v>4</v>
@@ -5905,15 +6363,15 @@
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>7911</v>
+        <v>6997</v>
       </c>
       <c r="B5" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="3"/>
@@ -5925,7 +6383,7 @@
       </c>
       <c r="F5" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5935,11 +6393,11 @@
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>7302</v>
+        <v>7157</v>
       </c>
       <c r="B6" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP2</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5947,15 +6405,15 @@
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>77707</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="4"/>
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="F6" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -5965,11 +6423,11 @@
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>7425</v>
+        <v>7712</v>
       </c>
       <c r="B7" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP2</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -5981,7 +6439,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F7" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -5989,33 +6447,33 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>6909</v>
+        <v>6860</v>
       </c>
       <c r="B8" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6025,11 +6483,11 @@
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>6410</v>
+        <v>7092</v>
       </c>
       <c r="B9" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6037,11 +6495,11 @@
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F9" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6049,13 +6507,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>7688</v>
+        <v>6771</v>
       </c>
       <c r="B10" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6067,7 +6525,7 @@
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="4"/>
@@ -6075,17 +6533,17 @@
       </c>
       <c r="F10" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44589</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>7938</v>
+        <v>6315</v>
       </c>
       <c r="B11" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6097,15 +6555,15 @@
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F11" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6121,31 +6579,31 @@
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>6820</v>
+        <v>6079</v>
       </c>
       <c r="B12" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>1</v>
       </c>
       <c r="F12" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O12">
         <v>2</v>
@@ -6157,19 +6615,19 @@
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>6489</v>
+        <v>7375</v>
       </c>
       <c r="B13" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="4"/>
@@ -6177,11 +6635,11 @@
       </c>
       <c r="F13" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O13">
         <v>3</v>
@@ -6193,7 +6651,7 @@
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>6571</v>
+        <v>6681</v>
       </c>
       <c r="B14" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6205,15 +6663,15 @@
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6229,31 +6687,31 @@
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>6906</v>
+        <v>7195</v>
       </c>
       <c r="B15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>49570</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O15">
         <v>5</v>
@@ -6265,23 +6723,23 @@
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>6681</v>
+        <v>7903</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>88927</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="4"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F16" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6289,7 +6747,7 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O16">
         <v>6</v>
@@ -6301,11 +6759,11 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>7870</v>
+        <v>6128</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6313,37 +6771,37 @@
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="4"/>
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F17" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>7761</v>
+        <v>6515</v>
       </c>
       <c r="B18" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="4"/>
@@ -6351,7 +6809,7 @@
       </c>
       <c r="F18" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6367,11 +6825,11 @@
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>7729</v>
+        <v>7809</v>
       </c>
       <c r="B19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6383,15 +6841,15 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O19">
         <v>2</v>
@@ -6403,19 +6861,19 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>6696</v>
+        <v>7763</v>
       </c>
       <c r="B20" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>29436</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="4"/>
@@ -6423,7 +6881,7 @@
       </c>
       <c r="F20" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6439,7 +6897,7 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>6397</v>
+        <v>6282</v>
       </c>
       <c r="B21" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6447,15 +6905,15 @@
       </c>
       <c r="C21" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="F21" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6475,19 +6933,19 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>7805</v>
+        <v>7830</v>
       </c>
       <c r="B22" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="4"/>
@@ -6511,27 +6969,27 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>6181</v>
+        <v>6694</v>
       </c>
       <c r="B23" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C23" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="3"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="F23" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6541,11 +6999,11 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>6330</v>
+        <v>7947</v>
       </c>
       <c r="B24" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C24" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6557,11 +7015,11 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>1</v>
       </c>
       <c r="F24" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6577,31 +7035,31 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>6601</v>
+        <v>6530</v>
       </c>
       <c r="B25" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP1</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
       <c r="O25">
         <v>2</v>
@@ -6613,11 +7071,11 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>6445</v>
+        <v>6346</v>
       </c>
       <c r="B26" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP3</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6625,7 +7083,7 @@
       </c>
       <c r="D26">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,6),$O$11:$P$16,2,FALSE)</f>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="4"/>
@@ -6637,29 +7095,29 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>7581</v>
+        <v>6172</v>
       </c>
       <c r="B27" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP4</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F27" s="4">
         <f t="shared" ca="1" si="5"/>
@@ -6679,19 +7137,19 @@
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>6246</v>
+        <v>6458</v>
       </c>
       <c r="B28" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP1</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="3"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="4"/>
@@ -6699,11 +7157,11 @@
       </c>
       <c r="F28" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
       <c r="O28">
         <v>2</v>
@@ -6715,37 +7173,37 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>7098</v>
+        <v>6668</v>
       </c>
       <c r="B29" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="0"/>
-        <v>6731</v>
+        <v>6801</v>
       </c>
       <c r="B30" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6753,41 +7211,41 @@
       </c>
       <c r="C30" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="3"/>
-        <v>29436</v>
+        <v>77707</v>
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="F30" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Late</v>
+        <v>On Time</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="0"/>
-        <v>7318</v>
+        <v>6673</v>
       </c>
       <c r="B31" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP2</v>
+        <v>NP4</v>
       </c>
       <c r="C31" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Verification &amp; Validation</v>
+        <v>Quality Planning</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="4"/>
@@ -6795,7 +7253,7 @@
       </c>
       <c r="F31" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6805,7 +7263,7 @@
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="0"/>
-        <v>7648</v>
+        <v>6615</v>
       </c>
       <c r="B32" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -6813,19 +7271,19 @@
       </c>
       <c r="C32" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Quality Planning</v>
+        <v>Verification &amp; Validation</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="3"/>
-        <v>88927</v>
+        <v>49570</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="4"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F32" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6835,11 +7293,11 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="0"/>
-        <v>6054</v>
+        <v>6193</v>
       </c>
       <c r="B33" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP4</v>
+        <v>NP3</v>
       </c>
       <c r="C33" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6851,11 +7309,11 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="F33" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44587</v>
+        <v>44585</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -6865,11 +7323,11 @@
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="0"/>
-        <v>7907</v>
+        <v>7749</v>
       </c>
       <c r="B34" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP1</v>
+        <v>NP4</v>
       </c>
       <c r="C34" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6877,29 +7335,29 @@
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="3"/>
-        <v>77707</v>
+        <v>29436</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="F34" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="0"/>
-        <v>6749</v>
+        <v>6721</v>
       </c>
       <c r="B35" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>NP3</v>
+        <v>NP1</v>
       </c>
       <c r="C35" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -6907,19 +7365,19 @@
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="3"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="4"/>
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="F35" s="4">
         <f t="shared" ca="1" si="5"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>On Time</v>
+        <v>Late</v>
       </c>
     </row>
   </sheetData>
@@ -6933,7 +7391,7 @@
   <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6971,7 +7429,7 @@
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">RANDBETWEEN(200,230)</f>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B2">
         <v>77030</v>
@@ -6981,7 +7439,7 @@
       </c>
       <c r="D2" s="4">
         <f ca="1">E2+RANDBETWEEN(-2,5)</f>
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="E2" s="4">
         <f t="shared" ref="E2:E35" ca="1" si="0">VLOOKUP(RANDBETWEEN(1,5),$M$20:$N$24,2,FALSE)</f>
@@ -6997,23 +7455,23 @@
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A35" ca="1" si="1">RANDBETWEEN(200,230)</f>
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B35" ca="1" si="2">VLOOKUP(RANDBETWEEN(1,4),$M$13:$N$18,2,FALSE)</f>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="C3">
         <f ca="1">RANDBETWEEN(1,11)/2</f>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="D3" s="4">
         <f ca="1">E3+RANDBETWEEN(-2,5)</f>
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="E3" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="F3" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
@@ -7021,7 +7479,7 @@
       </c>
       <c r="G3" t="str">
         <f ca="1">VLOOKUP(F3,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Vendor B</v>
+        <v>Vendor A</v>
       </c>
       <c r="M3">
         <v>1</v>
@@ -7042,31 +7500,31 @@
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="C4">
         <f t="shared" ref="C4:C35" ca="1" si="3">RANDBETWEEN(1,11)/2</f>
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4">
         <f t="shared" ref="D4:D35" ca="1" si="4">E4+RANDBETWEEN(-2,5)</f>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E4" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F35" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$M$3:$N$7,2,FALSE)</f>
-        <v>Process</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G35" ca="1" si="6">VLOOKUP(F4,$N$3:$Q$6,RANDBETWEEN(2,4),FALSE)</f>
-        <v>Purchasing</v>
+        <v>Engineering</v>
       </c>
       <c r="M4">
         <v>2</v>
@@ -7087,7 +7545,7 @@
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="1"/>
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="2"/>
@@ -7095,23 +7553,23 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44590</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Process</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Manufacturing</v>
       </c>
       <c r="M5">
         <v>3</v>
@@ -7132,27 +7590,27 @@
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
@@ -7177,49 +7635,49 @@
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Engineering</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>49570</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="D8" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44592</v>
+        <v>44593</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7227,17 +7685,17 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="2"/>
@@ -7245,37 +7703,37 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="D9" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="1"/>
-        <v>230</v>
+        <v>200</v>
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -7283,55 +7741,55 @@
       </c>
       <c r="E10" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Product</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Purchased</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44592</v>
       </c>
       <c r="E11" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Engineering</v>
+        <v>In Process</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="1"/>
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
@@ -7339,25 +7797,25 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="E12" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Process</v>
+        <v>Supplier</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Engineering</v>
+        <v>Vendor B</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="2"/>
@@ -7365,23 +7823,23 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44592</v>
       </c>
       <c r="E13" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44589</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Process</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor A</v>
+        <v>Manufacturing</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -7396,31 +7854,31 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="1"/>
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44588</v>
       </c>
       <c r="E14" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Engineering</v>
       </c>
       <c r="M14">
         <v>2</v>
@@ -7439,19 +7897,19 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="E15" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7474,7 +7932,7 @@
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="1"/>
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="2"/>
@@ -7482,23 +7940,23 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44584</v>
+        <v>44586</v>
       </c>
       <c r="E16" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Purchased</v>
       </c>
       <c r="M16">
         <v>4</v>
@@ -7513,31 +7971,31 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="1"/>
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>77030</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44589</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44585</v>
       </c>
-      <c r="E17" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
-      </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Supplier</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Vendor A</v>
       </c>
       <c r="M17">
         <v>5</v>
@@ -7552,31 +8010,31 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="E18" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>In Process</v>
       </c>
       <c r="M18">
         <v>6</v>
@@ -7591,7 +8049,7 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="2"/>
@@ -7599,53 +8057,53 @@
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44592</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44587</v>
       </c>
-      <c r="E19" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
-      </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>Product</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Finished Good</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="2"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E20" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Purchasing</v>
       </c>
       <c r="M20">
         <v>1</v>
@@ -7657,19 +8115,19 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="1"/>
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="E21" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7677,11 +8135,11 @@
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor A</v>
+        <v>Inspection</v>
       </c>
       <c r="M21">
         <v>2</v>
@@ -7693,31 +8151,31 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>49570</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="E22" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Engineering</v>
       </c>
       <c r="M22">
         <v>3</v>
@@ -7729,23 +8187,23 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="1"/>
-        <v>223</v>
+        <v>207</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="4"/>
+        <v>44590</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" ca="1" si="0"/>
         <v>44587</v>
-      </c>
-      <c r="E23" s="4">
-        <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7765,31 +8223,31 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="1"/>
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44592</v>
+        <v>44586</v>
       </c>
       <c r="E24" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Supplier</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Vendor B</v>
       </c>
       <c r="M24">
         <v>5</v>
@@ -7801,23 +8259,23 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="1"/>
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44592</v>
       </c>
       <c r="E25" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -7825,13 +8283,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="1"/>
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="2"/>
@@ -7839,23 +8297,23 @@
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44590</v>
       </c>
       <c r="E26" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Supplier</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Vendor C</v>
       </c>
       <c r="M26">
         <v>1</v>
@@ -7867,7 +8325,7 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="1"/>
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="2"/>
@@ -7875,7 +8333,7 @@
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -7887,11 +8345,11 @@
       </c>
       <c r="F27" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Supplier</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Manufacturing</v>
+        <v>Vendor B</v>
       </c>
       <c r="M27">
         <v>2</v>
@@ -7903,7 +8361,7 @@
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="1"/>
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="2"/>
@@ -7911,11 +8369,11 @@
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="E28" s="4">
         <f t="shared" ca="1" si="0"/>
@@ -7923,17 +8381,17 @@
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor A</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="1"/>
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="2"/>
@@ -7941,29 +8399,29 @@
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44586</v>
+        <v>44585</v>
       </c>
       <c r="E29" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Process</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="2"/>
@@ -7971,45 +8429,45 @@
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="D30" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44587</v>
       </c>
       <c r="E30" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Equipment Control</v>
+        <v>Product</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection</v>
+        <v>Finished Good</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <f t="shared" ca="1" si="1"/>
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="2"/>
-        <v>49570</v>
+        <v>77030</v>
       </c>
       <c r="C31">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="D31" s="4">
         <f ca="1">E31+RANDBETWEEN(-2,5)</f>
-        <v>44593</v>
+        <v>44586</v>
       </c>
       <c r="E31" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44586</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8023,7 +8481,7 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <f t="shared" ca="1" si="1"/>
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="2"/>
@@ -8031,15 +8489,15 @@
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2.5</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="E32" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8047,21 +8505,21 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Finished Good</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="4"/>
@@ -8069,67 +8527,67 @@
       </c>
       <c r="E33" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44587</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Supplier</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Vendor B</v>
+        <v>Manufacturing</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <f t="shared" ca="1" si="1"/>
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="2"/>
-        <v>77030</v>
+        <v>49570</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44591</v>
+        <v>44584</v>
       </c>
       <c r="E34" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>Product</v>
+        <v>Equipment Control</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>In Process</v>
+        <v>Inspection</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <f t="shared" ca="1" si="1"/>
-        <v>229</v>
+        <v>201</v>
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="2"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="3"/>
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="D35" s="4">
         <f t="shared" ca="1" si="4"/>
-        <v>44590</v>
+        <v>44593</v>
       </c>
       <c r="E35" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8137,7 +8595,7 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Purchased</v>
+        <v>Finished Good</v>
       </c>
     </row>
   </sheetData>
@@ -8191,15 +8649,15 @@
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
         <f ca="1">VLOOKUP(F2,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="B2">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C2" s="4">
         <f ca="1">D2+RANDBETWEEN(-2,5)</f>
-        <v>44586</v>
+        <v>44592</v>
       </c>
       <c r="D2" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
@@ -8207,19 +8665,19 @@
       </c>
       <c r="E2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F2" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G2" t="str">
         <f ca="1">VLOOKUP(F2,$O$2:$P$10,2,FALSE)</f>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H2">
         <f ca="1">RANDBETWEEN(80000,99999)</f>
-        <v>87385</v>
+        <v>94307</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -8256,19 +8714,19 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B34" ca="1" si="1">RANDBETWEEN(1,6)/4</f>
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C3" s="4">
         <f t="shared" ref="C3:C34" ca="1" si="2">D3+RANDBETWEEN(-2,5)</f>
-        <v>44592</v>
+        <v>44588</v>
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D34" ca="1" si="3">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E34" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F3" t="str">
         <f t="shared" ref="F3:F34" ca="1" si="5">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
@@ -8280,7 +8738,7 @@
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H34" ca="1" si="7">RANDBETWEEN(80000,99999)</f>
-        <v>86347</v>
+        <v>86270</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -8313,11 +8771,11 @@
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C4" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8329,7 +8787,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8341,7 +8799,7 @@
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="7"/>
-        <v>90491</v>
+        <v>99272</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -8374,35 +8832,35 @@
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44593</v>
+        <v>44589</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="7"/>
-        <v>81680</v>
+        <v>95494</v>
       </c>
       <c r="N5">
         <v>4</v>
@@ -8435,11 +8893,11 @@
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>32301</v>
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -8447,7 +8905,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44585</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8455,15 +8913,15 @@
       </c>
       <c r="F6" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="7"/>
-        <v>80016</v>
+        <v>92458</v>
       </c>
       <c r="N6">
         <v>5</v>
@@ -8496,35 +8954,35 @@
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C7" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44588</v>
+        <v>44591</v>
       </c>
       <c r="D7" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44587</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Returns</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="7"/>
-        <v>86700</v>
+        <v>97945</v>
       </c>
       <c r="N7">
         <v>6</v>
@@ -8557,35 +9015,35 @@
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>77030</v>
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.25</v>
       </c>
       <c r="C8" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44591</v>
+      </c>
+      <c r="D8" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44586</v>
       </c>
-      <c r="D8" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
-      </c>
       <c r="E8" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="7"/>
-        <v>88500</v>
+        <v>82311</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -8618,35 +9076,35 @@
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="C9" s="4">
         <f t="shared" ca="1" si="2"/>
+        <v>44585</v>
+      </c>
+      <c r="D9" s="4">
+        <f t="shared" ca="1" si="3"/>
         <v>44586</v>
       </c>
-      <c r="D9" s="4">
-        <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
-      </c>
       <c r="E9" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="7"/>
-        <v>82718</v>
+        <v>80071</v>
       </c>
       <c r="N9">
         <v>8</v>
@@ -8683,19 +9141,19 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="C10" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="D10" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8707,7 +9165,7 @@
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="7"/>
-        <v>95213</v>
+        <v>88596</v>
       </c>
       <c r="N10">
         <v>9</v>
@@ -8744,19 +9202,19 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>0.5</v>
       </c>
       <c r="C11" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="D11" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8768,25 +9226,25 @@
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="7"/>
-        <v>87981</v>
+        <v>86946</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="C12" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44594</v>
+        <v>44588</v>
       </c>
       <c r="D12" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8794,15 +9252,15 @@
       </c>
       <c r="F12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="7"/>
-        <v>91393</v>
+        <v>92056</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -8817,35 +9275,35 @@
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="C13" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44586</v>
+        <v>44590</v>
       </c>
       <c r="D13" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="7"/>
-        <v>94675</v>
+        <v>88861</v>
       </c>
       <c r="N13">
         <v>2</v>
@@ -8860,23 +9318,23 @@
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>29436</v>
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44591</v>
       </c>
       <c r="D14" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -8888,7 +9346,7 @@
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="7"/>
-        <v>97590</v>
+        <v>80921</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -8903,35 +9361,35 @@
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>88927</v>
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C15" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44592</v>
       </c>
       <c r="D15" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>Returns</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="7"/>
-        <v>84174</v>
+        <v>94666</v>
       </c>
       <c r="N15">
         <v>4</v>
@@ -8946,19 +9404,19 @@
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>32301</v>
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="C16" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44583</v>
+        <v>44590</v>
       </c>
       <c r="D16" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -8966,15 +9424,15 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>INSP-001</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="7"/>
-        <v>83762</v>
+        <v>87050</v>
       </c>
       <c r="N16">
         <v>5</v>
@@ -8989,35 +9447,35 @@
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75</v>
+        <v>0.25</v>
       </c>
       <c r="C17" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44584</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44585</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Process Audit</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="7"/>
-        <v>82808</v>
+        <v>94823</v>
       </c>
       <c r="N17">
         <v>6</v>
@@ -9032,7 +9490,7 @@
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77707</v>
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
@@ -9040,15 +9498,15 @@
       </c>
       <c r="C18" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44590</v>
+        <v>44591</v>
       </c>
       <c r="D18" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Raw Material</v>
+        <v>In-Process</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9060,21 +9518,21 @@
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="7"/>
-        <v>87559</v>
+        <v>83285</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>32301</v>
+        <v>77030</v>
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C19" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44587</v>
       </c>
       <c r="D19" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -9082,19 +9540,19 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Finished Good</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="7"/>
-        <v>99276</v>
+        <v>88524</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -9106,35 +9564,35 @@
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>88927</v>
+        <v>29436</v>
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C20" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="D20" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44586</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Process Audit</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="7"/>
-        <v>81238</v>
+        <v>81467</v>
       </c>
       <c r="N20">
         <v>2</v>
@@ -9146,15 +9604,15 @@
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="C21" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44589</v>
       </c>
       <c r="D21" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -9162,7 +9620,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9174,7 +9632,7 @@
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="7"/>
-        <v>94112</v>
+        <v>90593</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -9186,11 +9644,11 @@
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C22" s="4">
         <f t="shared" ca="1" si="2"/>
@@ -9198,7 +9656,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9206,15 +9664,15 @@
       </c>
       <c r="F22" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Process Audit</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="7"/>
-        <v>97622</v>
+        <v>91006</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -9226,15 +9684,15 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="D23" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -9254,7 +9712,7 @@
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="7"/>
-        <v>87476</v>
+        <v>85477</v>
       </c>
       <c r="N23">
         <v>5</v>
@@ -9266,7 +9724,7 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" ca="1" si="0"/>
-        <v>49570</v>
+        <v>32301</v>
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
@@ -9274,11 +9732,11 @@
       </c>
       <c r="C24" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="D24" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9286,33 +9744,33 @@
       </c>
       <c r="F24" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>CAPA-002</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Root Cause Analysis</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="7"/>
-        <v>85488</v>
+        <v>80997</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" ca="1" si="0"/>
-        <v>29436</v>
+        <v>32301</v>
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C25" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44587</v>
+        <v>44591</v>
       </c>
       <c r="D25" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44588</v>
+        <v>44589</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9320,15 +9778,15 @@
       </c>
       <c r="F25" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>INSP-001</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Inspection Standards (General)</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="7"/>
-        <v>81582</v>
+        <v>88480</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -9340,35 +9798,35 @@
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>32301</v>
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="C26" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44589</v>
       </c>
       <c r="D26" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44587</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>Raw Material</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-021</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Process Audit</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="7"/>
-        <v>88338</v>
+        <v>95276</v>
       </c>
       <c r="N26">
         <v>2</v>
@@ -9380,15 +9838,15 @@
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>29436</v>
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="C27" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="D27" s="4">
         <f t="shared" ca="1" si="3"/>
@@ -9408,41 +9866,41 @@
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="7"/>
-        <v>91301</v>
+        <v>91654</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" ca="1" si="0"/>
-        <v>77030</v>
+        <v>77707</v>
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="C28" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="D28" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44585</v>
+        <v>44588</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>In-Process</v>
+        <v>Raw Material</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>INSP-001</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="7"/>
-        <v>83570</v>
+        <v>85442</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -9454,35 +9912,35 @@
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <f t="shared" ca="1" si="0"/>
-        <v>77707</v>
+        <v>88927</v>
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C29" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44592</v>
+        <v>44590</v>
       </c>
       <c r="D29" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Returns</v>
+        <v>In-Process</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>INSP-001</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="7"/>
-        <v>84551</v>
+        <v>84194</v>
       </c>
       <c r="N29">
         <v>2</v>
@@ -9498,15 +9956,15 @@
       </c>
       <c r="B30">
         <f ca="1">RANDBETWEEN(1,6)/4</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C30" s="4">
         <f ca="1">D30+RANDBETWEEN(-2,5)</f>
-        <v>44587</v>
+        <v>44588</v>
       </c>
       <c r="D30" s="4">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,5),$N$19:$O$23,2,FALSE)</f>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$28:$O$31,2,FALSE)</f>
@@ -9514,15 +9972,15 @@
       </c>
       <c r="F30" t="str">
         <f ca="1">VLOOKUP(RANDBETWEEN(1,4),$N$2:$O$10,2,FALSE)</f>
-        <v>AUDI-028</v>
+        <v>INSP-001</v>
       </c>
       <c r="G30" t="str">
         <f ca="1">VLOOKUP(F30,$O$2:$P$10,2,FALSE)</f>
-        <v>Supplier Audits</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="7"/>
-        <v>82109</v>
+        <v>91370</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -9533,20 +9991,20 @@
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" ref="A31:A34" ca="1" si="8">VLOOKUP(F31,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
-        <v>77030</v>
+        <f ca="1">VLOOKUP(F31,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
+        <v>29436</v>
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="C31" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44589</v>
+        <v>44588</v>
       </c>
       <c r="D31" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9554,15 +10012,15 @@
       </c>
       <c r="F31" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>AUDI-028</v>
+        <v>INSP-001</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Supplier Audits</v>
+        <v>Inspection Standards (General)</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="7"/>
-        <v>97201</v>
+        <v>80145</v>
       </c>
       <c r="N31">
         <v>4</v>
@@ -9573,8 +10031,8 @@
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" ca="1" si="8"/>
-        <v>88927</v>
+        <f ca="1">VLOOKUP(F32,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
+        <v>32301</v>
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
@@ -9582,15 +10040,15 @@
       </c>
       <c r="C32" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44585</v>
+        <v>44592</v>
       </c>
       <c r="D32" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44586</v>
+        <v>44588</v>
       </c>
       <c r="E32" t="str">
         <f t="shared" ca="1" si="4"/>
-        <v>Finished Good</v>
+        <v>In-Process</v>
       </c>
       <c r="F32" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -9602,25 +10060,25 @@
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="7"/>
-        <v>94174</v>
+        <v>85755</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ca="1" si="8"/>
-        <v>88927</v>
+        <f ca="1">VLOOKUP(F33,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
+        <v>77030</v>
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="C33" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44588</v>
       </c>
       <c r="D33" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="E33" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9628,33 +10086,33 @@
       </c>
       <c r="F33" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-021</v>
       </c>
       <c r="G33" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Process Audit</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="7"/>
-        <v>81885</v>
+        <v>96959</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
-        <f t="shared" ca="1" si="8"/>
-        <v>88927</v>
+        <f ca="1">VLOOKUP(F34,$O$2:$V$10,RANDBETWEEN(3,8),FALSE)</f>
+        <v>77030</v>
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="C34" s="4">
         <f t="shared" ca="1" si="2"/>
-        <v>44591</v>
+        <v>44585</v>
       </c>
       <c r="D34" s="4">
         <f t="shared" ca="1" si="3"/>
-        <v>44589</v>
+        <v>44586</v>
       </c>
       <c r="E34" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -9662,15 +10120,15 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>CAPA-002</v>
+        <v>AUDI-028</v>
       </c>
       <c r="G34" t="str">
         <f t="shared" ca="1" si="6"/>
-        <v>Root Cause Analysis</v>
+        <v>Supplier Audits</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="7"/>
-        <v>90886</v>
+        <v>90074</v>
       </c>
     </row>
   </sheetData>
